--- a/ArticleManage/main_working_folder/output_folders/Data 106 Investigation of CO2 Adsorption/Data106_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 106 Investigation of CO2 Adsorption/Data106_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="C_NaOH_750" sheetId="1" r:id="rId1"/>
-    <sheet name="C_NaOH_800" sheetId="2" r:id="rId4"/>
-    <sheet name="C_NaOH_850" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 C_NaOH_750  0-1-0-500 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 C_NaOH_800  0-1-0-500 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 C_NaOH_850  0-1-0-500 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki C_NaOH_750</a:t>
+              <a:t>Izoterma adsorpcji probki C_NaOH_750 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>C_NaOH_750!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 C_NaOH_750  0-1-0-500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>C_NaOH_750!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 C_NaOH_750  0-1-0-500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -182,6 +182,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -251,6 +253,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -415,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki C_NaOH_800</a:t>
+              <a:t>Izoterma adsorpcji probki C_NaOH_800 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>C_NaOH_800!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 C_NaOH_800  0-1-0-500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>C_NaOH_800!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 C_NaOH_800  0-1-0-500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -492,6 +496,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -561,6 +567,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -725,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki C_NaOH_850</a:t>
+              <a:t>Izoterma adsorpcji probki C_NaOH_850 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -784,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>C_NaOH_850!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 C_NaOH_850  0-1-0-500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>C_NaOH_850!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 C_NaOH_850  0-1-0-500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -802,6 +810,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -871,6 +881,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 106 Investigation of CO2 Adsorption/Data106_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 106 Investigation of CO2 Adsorption/Data106_all_graphs_excel.xlsx
@@ -3099,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3120,589 +3120,181 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0077</v>
+        <v>0.9957</v>
       </c>
       <c r="B3" s="0">
-        <v>171.4668</v>
+        <v>347.8618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0216</v>
+        <v>0.9885</v>
       </c>
       <c r="B4" s="0">
-        <v>187.1238</v>
+        <v>322.3684</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0361</v>
+        <v>0.9673</v>
       </c>
       <c r="B5" s="0">
-        <v>192.7077</v>
+        <v>286.1842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0505</v>
+        <v>0.9491</v>
       </c>
       <c r="B6" s="0">
-        <v>197.6777</v>
+        <v>273.0263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.066</v>
+        <v>0.9299</v>
       </c>
       <c r="B7" s="0">
-        <v>198.7274</v>
+        <v>266.4474</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0789</v>
+        <v>0.9097</v>
       </c>
       <c r="B8" s="0">
-        <v>203.5915</v>
+        <v>261.5132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.094</v>
+        <v>0.8804</v>
       </c>
       <c r="B9" s="0">
-        <v>205.9842</v>
+        <v>254.9342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1229</v>
+        <v>0.8582</v>
       </c>
       <c r="B10" s="0">
-        <v>207.5256</v>
+        <v>251.6447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1374</v>
+        <v>0.837</v>
       </c>
       <c r="B11" s="0">
-        <v>209.8444</v>
+        <v>249.1776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1531</v>
+        <v>0.7523</v>
       </c>
       <c r="B12" s="0">
-        <v>209.1689</v>
+        <v>242.5987</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1663</v>
+        <v>0.6534</v>
       </c>
       <c r="B13" s="0">
-        <v>210.2329</v>
+        <v>236.8421</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.181</v>
+        <v>0.5343</v>
       </c>
       <c r="B14" s="0">
-        <v>213.0272</v>
+        <v>231.0855</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.194</v>
+        <v>0.4525</v>
       </c>
       <c r="B15" s="0">
-        <v>212.6656</v>
+        <v>226.1513</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2103</v>
+        <v>0.4091</v>
       </c>
       <c r="B16" s="0">
-        <v>213.1309</v>
+        <v>220.3947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2233</v>
+        <v>0.3597</v>
       </c>
       <c r="B17" s="0">
-        <v>213.1041</v>
+        <v>218.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2387</v>
+        <v>0.3102</v>
       </c>
       <c r="B18" s="0">
-        <v>215.2945</v>
+        <v>216.2829</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2531</v>
+        <v>0.2608</v>
       </c>
       <c r="B19" s="0">
-        <v>215.543</v>
+        <v>214.6382</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2676</v>
+        <v>0.2113</v>
       </c>
       <c r="B20" s="0">
-        <v>216.4421</v>
+        <v>212.1711</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2821</v>
+        <v>0.1619</v>
       </c>
       <c r="B21" s="0">
-        <v>216.739</v>
+        <v>209.7039</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2966</v>
+        <v>0.1124</v>
       </c>
       <c r="B22" s="0">
-        <v>217.5868</v>
+        <v>207.2368</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.311</v>
+        <v>0.07</v>
       </c>
       <c r="B23" s="0">
-        <v>218.6886</v>
+        <v>202.3026</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3255</v>
+        <v>0.0125</v>
       </c>
       <c r="B24" s="0">
-        <v>218.7854</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B25" s="0">
-        <v>218.9737</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.3556</v>
-      </c>
-      <c r="B26" s="0">
-        <v>216.5692</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.3678</v>
-      </c>
-      <c r="B27" s="0">
-        <v>218.2705</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.3834</v>
-      </c>
-      <c r="B28" s="0">
-        <v>221.0365</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.3978</v>
-      </c>
-      <c r="B29" s="0">
-        <v>221.4764</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.4123</v>
-      </c>
-      <c r="B30" s="0">
-        <v>223.2176</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.4268</v>
-      </c>
-      <c r="B31" s="0">
-        <v>225.2756</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.4413</v>
-      </c>
-      <c r="B32" s="0">
-        <v>226.1898</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.4702</v>
-      </c>
-      <c r="B33" s="0">
-        <v>226.7617</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.4847</v>
-      </c>
-      <c r="B34" s="0">
-        <v>227.7606</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.4991</v>
-      </c>
-      <c r="B35" s="0">
-        <v>228.8326</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.5136</v>
-      </c>
-      <c r="B36" s="0">
-        <v>230.1806</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.5281</v>
-      </c>
-      <c r="B37" s="0">
-        <v>229.1931</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.5425</v>
-      </c>
-      <c r="B38" s="0">
-        <v>230.2456</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.557</v>
-      </c>
-      <c r="B39" s="0">
-        <v>232.2433</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.5715</v>
-      </c>
-      <c r="B40" s="0">
-        <v>232.7793</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.586</v>
-      </c>
-      <c r="B41" s="0">
-        <v>233.0717</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.6004</v>
-      </c>
-      <c r="B42" s="0">
-        <v>234.2411</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.6149</v>
-      </c>
-      <c r="B43" s="0">
-        <v>236.0829</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.6294</v>
-      </c>
-      <c r="B44" s="0">
-        <v>236.882</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.645</v>
-      </c>
-      <c r="B45" s="0">
-        <v>235.7672</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.6571</v>
-      </c>
-      <c r="B46" s="0">
-        <v>236.0135</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.6728</v>
-      </c>
-      <c r="B47" s="0">
-        <v>239.2451</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.6873</v>
-      </c>
-      <c r="B48" s="0">
-        <v>239.9795</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.7017</v>
-      </c>
-      <c r="B49" s="0">
-        <v>240.0542</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.7162</v>
-      </c>
-      <c r="B50" s="0">
-        <v>239.8456</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.7307</v>
-      </c>
-      <c r="B51" s="0">
-        <v>241.1276</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.7463</v>
-      </c>
-      <c r="B52" s="0">
-        <v>240.2788</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.7588</v>
-      </c>
-      <c r="B53" s="0">
-        <v>240.5748</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.7741</v>
-      </c>
-      <c r="B54" s="0">
-        <v>244.6683</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.7885</v>
-      </c>
-      <c r="B55" s="0">
-        <v>245.7402</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.803</v>
-      </c>
-      <c r="B56" s="0">
-        <v>246.6468</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.8175</v>
-      </c>
-      <c r="B57" s="0">
-        <v>247.51</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.8322</v>
-      </c>
-      <c r="B58" s="0">
-        <v>247.8981</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.846</v>
-      </c>
-      <c r="B59" s="0">
-        <v>248.48</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.8611</v>
-      </c>
-      <c r="B60" s="0">
-        <v>249.5059</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.8761</v>
-      </c>
-      <c r="B61" s="0">
-        <v>251.7164</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>0.8889</v>
-      </c>
-      <c r="B62" s="0">
-        <v>253.9242</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>0.9043</v>
-      </c>
-      <c r="B63" s="0">
-        <v>257.1682</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
-        <v>0.9188</v>
-      </c>
-      <c r="B64" s="0">
-        <v>262.0833</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
-        <v>0.9327</v>
-      </c>
-      <c r="B65" s="0">
-        <v>264.3822</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0">
-        <v>0.9483</v>
-      </c>
-      <c r="B66" s="0">
-        <v>272.2082</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0">
-        <v>0.9615</v>
-      </c>
-      <c r="B67" s="0">
-        <v>281.221</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0">
-        <v>0.9712</v>
-      </c>
-      <c r="B68" s="0">
-        <v>292.3325</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0">
-        <v>0.9798</v>
-      </c>
-      <c r="B69" s="0">
-        <v>308.2198</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0">
-        <v>0.9865</v>
-      </c>
-      <c r="B70" s="0">
-        <v>317.6464</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0">
-        <v>0.9909</v>
-      </c>
-      <c r="B71" s="0">
-        <v>328.958</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0">
-        <v>0.9974</v>
-      </c>
-      <c r="B72" s="0">
-        <v>342.852</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0">
-        <v>0.9966</v>
-      </c>
-      <c r="B73" s="0">
-        <v>352.6649</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0">
-        <v>0.4545</v>
-      </c>
-      <c r="B74" s="0">
-        <v>226.1513</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0">
-        <v>0.1094</v>
-      </c>
-      <c r="B75" s="0">
-        <v>207.2368</v>
-      </c>
-    </row>
-    <row r="76"/>
+        <v>185.0329</v>
+      </c>
+    </row>
+    <row r="25"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3711,7 +3303,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3732,413 +3324,221 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0113</v>
+        <v>0.9948</v>
       </c>
       <c r="B3" s="0">
-        <v>255.4832</v>
+        <v>446.5461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0066</v>
+        <v>0.9887</v>
       </c>
       <c r="B4" s="0">
-        <v>230.3192</v>
+        <v>422.6974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0051</v>
+        <v>0.9786</v>
       </c>
       <c r="B5" s="0">
-        <v>210.9602</v>
+        <v>407.0724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0324</v>
+        <v>0.9685</v>
       </c>
       <c r="B6" s="0">
-        <v>271.8829</v>
+        <v>386.5132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0506</v>
+        <v>0.9543</v>
       </c>
       <c r="B7" s="0">
-        <v>285.7128</v>
+        <v>377.4671</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0724</v>
+        <v>0.9261</v>
       </c>
       <c r="B8" s="0">
-        <v>291.7696</v>
+        <v>362.6645</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0935</v>
+        <v>0.9018</v>
       </c>
       <c r="B9" s="0">
-        <v>295.5277</v>
+        <v>356.0855</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1145</v>
+        <v>0.8806</v>
       </c>
       <c r="B10" s="0">
-        <v>298.7334</v>
+        <v>352.7961</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1356</v>
+        <v>0.8594</v>
       </c>
       <c r="B11" s="0">
-        <v>301.1902</v>
+        <v>348.6842</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1566</v>
+        <v>0.8403</v>
       </c>
       <c r="B12" s="0">
-        <v>303.8944</v>
+        <v>346.2171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1777</v>
+        <v>0.7363</v>
       </c>
       <c r="B13" s="0">
-        <v>304.18</v>
+        <v>337.1711</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1987</v>
+        <v>0.6525</v>
       </c>
       <c r="B14" s="0">
-        <v>304.7381</v>
+        <v>333.0592</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2198</v>
+        <v>0.5526</v>
       </c>
       <c r="B15" s="0">
-        <v>306.1771</v>
+        <v>328.125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2408</v>
+        <v>0.4517</v>
       </c>
       <c r="B16" s="0">
-        <v>308.0627</v>
+        <v>320.7237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2619</v>
+        <v>0.4113</v>
       </c>
       <c r="B17" s="0">
-        <v>309.6961</v>
+        <v>316.6118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2829</v>
+        <v>0.3599</v>
       </c>
       <c r="B18" s="0">
-        <v>310.5112</v>
+        <v>314.1447</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.304</v>
+        <v>0.3124</v>
       </c>
       <c r="B19" s="0">
-        <v>311.5229</v>
+        <v>311.6776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.325</v>
+        <v>0.263</v>
       </c>
       <c r="B20" s="0">
-        <v>312.4407</v>
+        <v>309.2105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3461</v>
+        <v>0.2125</v>
       </c>
       <c r="B21" s="0">
-        <v>313.038</v>
+        <v>305.0987</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3671</v>
+        <v>0.1621</v>
       </c>
       <c r="B22" s="0">
-        <v>314.6956</v>
+        <v>301.8092</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3882</v>
+        <v>0.1126</v>
       </c>
       <c r="B23" s="0">
-        <v>315.9045</v>
+        <v>296.0526</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4092</v>
+        <v>0.0652</v>
       </c>
       <c r="B24" s="0">
-        <v>317.4495</v>
+        <v>288.6513</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4303</v>
+        <v>0.0116</v>
       </c>
       <c r="B25" s="0">
-        <v>317.8474</v>
+        <v>260.6908</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4513</v>
+        <v>0.0056</v>
       </c>
       <c r="B26" s="0">
-        <v>319.1088</v>
+        <v>250.8224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4724</v>
+        <v>0.0045</v>
       </c>
       <c r="B27" s="0">
-        <v>320.0516</v>
+        <v>238.4868</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.4934</v>
+        <v>0.0025</v>
       </c>
       <c r="B28" s="0">
-        <v>321.5122</v>
+        <v>222.0395</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5145</v>
+        <v>0.0014</v>
       </c>
       <c r="B29" s="0">
-        <v>323.7309</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.5355</v>
-      </c>
-      <c r="B30" s="0">
-        <v>326.3021</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.5566</v>
-      </c>
-      <c r="B31" s="0">
-        <v>329.4697</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.5776</v>
-      </c>
-      <c r="B32" s="0">
-        <v>329.0426</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.5986</v>
-      </c>
-      <c r="B33" s="0">
-        <v>328.4642</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.6197</v>
-      </c>
-      <c r="B34" s="0">
-        <v>330.1029</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.6407</v>
-      </c>
-      <c r="B35" s="0">
-        <v>333.1355</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.6618</v>
-      </c>
-      <c r="B36" s="0">
-        <v>332.6834</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.6828</v>
-      </c>
-      <c r="B37" s="0">
-        <v>334.1947</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.7039</v>
-      </c>
-      <c r="B38" s="0">
-        <v>335.4007</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.7249</v>
-      </c>
-      <c r="B39" s="0">
-        <v>336.1778</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.746</v>
-      </c>
-      <c r="B40" s="0">
-        <v>337.3711</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.767</v>
-      </c>
-      <c r="B41" s="0">
-        <v>339.923</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.7881</v>
-      </c>
-      <c r="B42" s="0">
-        <v>341.8882</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8091</v>
-      </c>
-      <c r="B43" s="0">
-        <v>345.7428</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8302</v>
-      </c>
-      <c r="B44" s="0">
-        <v>345.2575</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8512</v>
-      </c>
-      <c r="B45" s="0">
-        <v>348.2859</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8723</v>
-      </c>
-      <c r="B46" s="0">
-        <v>353.392</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8933</v>
-      </c>
-      <c r="B47" s="0">
-        <v>356.5668</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9144</v>
-      </c>
-      <c r="B48" s="0">
-        <v>361.637</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9355</v>
-      </c>
-      <c r="B49" s="0">
-        <v>369.951</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9573</v>
-      </c>
-      <c r="B50" s="0">
-        <v>378.9657</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9741</v>
-      </c>
-      <c r="B51" s="0">
-        <v>391.9842</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9884</v>
-      </c>
-      <c r="B52" s="0">
-        <v>416.4669</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.992</v>
-      </c>
-      <c r="B53" s="0">
-        <v>437.0068</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>204.7697</v>
+      </c>
+    </row>
+    <row r="30"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4147,7 +3547,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4168,469 +3568,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0105</v>
+        <v>0.9927</v>
       </c>
       <c r="B3" s="0">
-        <v>190.6867</v>
+        <v>370.0658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0067</v>
+        <v>0.9876</v>
       </c>
       <c r="B4" s="0">
-        <v>164.0354</v>
+        <v>347.0395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0052</v>
+        <v>0.9643</v>
       </c>
       <c r="B5" s="0">
-        <v>148.4429</v>
+        <v>310.8553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0054</v>
+        <v>0.9481</v>
       </c>
       <c r="B6" s="0">
-        <v>115.8059</v>
+        <v>301.8092</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0049</v>
+        <v>0.929</v>
       </c>
       <c r="B7" s="0">
-        <v>91.1231</v>
+        <v>295.2303</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0052</v>
+        <v>0.9098</v>
       </c>
       <c r="B8" s="0">
-        <v>67.2569</v>
+        <v>291.1184</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0049</v>
+        <v>0.8896</v>
       </c>
       <c r="B9" s="0">
-        <v>45.7306</v>
+        <v>288.6513</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0052</v>
+        <v>0.8714</v>
       </c>
       <c r="B10" s="0">
-        <v>22.8119</v>
+        <v>286.1842</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.005</v>
+        <v>0.8492</v>
       </c>
       <c r="B11" s="0">
-        <v>135.6554</v>
+        <v>284.5395</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0068</v>
+        <v>0.8078</v>
       </c>
       <c r="B12" s="0">
-        <v>11.4695</v>
+        <v>282.0724</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0328</v>
+        <v>0.7594</v>
       </c>
       <c r="B13" s="0">
-        <v>209.6997</v>
+        <v>278.7829</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0539</v>
+        <v>0.7089</v>
       </c>
       <c r="B14" s="0">
-        <v>221.9613</v>
+        <v>276.3158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0749</v>
+        <v>0.6585</v>
       </c>
       <c r="B15" s="0">
-        <v>229.4863</v>
+        <v>273.0263</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.096</v>
+        <v>0.609</v>
       </c>
       <c r="B16" s="0">
-        <v>233.526</v>
+        <v>271.3816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.117</v>
+        <v>0.5586</v>
       </c>
       <c r="B17" s="0">
-        <v>236.7995</v>
+        <v>268.9145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1381</v>
+        <v>0.5091</v>
       </c>
       <c r="B18" s="0">
-        <v>240.6471</v>
+        <v>266.4474</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1591</v>
+        <v>0.4597</v>
       </c>
       <c r="B19" s="0">
-        <v>242.4348</v>
+        <v>263.9803</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1802</v>
+        <v>0.4102</v>
       </c>
       <c r="B20" s="0">
-        <v>246.069</v>
+        <v>261.5132</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2013</v>
+        <v>0.3598</v>
       </c>
       <c r="B21" s="0">
-        <v>248.0224</v>
+        <v>259.0461</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2223</v>
+        <v>0.3123</v>
       </c>
       <c r="B22" s="0">
-        <v>248.4559</v>
+        <v>255.7566</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2433</v>
+        <v>0.2649</v>
       </c>
       <c r="B23" s="0">
-        <v>251.6629</v>
+        <v>253.2895</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2644</v>
+        <v>0.2164</v>
       </c>
       <c r="B24" s="0">
-        <v>253.9227</v>
+        <v>249.1776</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2854</v>
+        <v>0.1619</v>
       </c>
       <c r="B25" s="0">
-        <v>254.9706</v>
+        <v>245.0658</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.3065</v>
+        <v>0.1095</v>
       </c>
       <c r="B26" s="0">
-        <v>256.1066</v>
+        <v>236.0197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.3275</v>
+        <v>0.062</v>
       </c>
       <c r="B27" s="0">
-        <v>257.3124</v>
+        <v>226.1513</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.3486</v>
+        <v>0.0115</v>
       </c>
       <c r="B28" s="0">
-        <v>260.0229</v>
+        <v>197.3684</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.3696</v>
+        <v>0.0064</v>
       </c>
       <c r="B29" s="0">
-        <v>260.5405</v>
+        <v>189.1447</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.3907</v>
+        <v>0.0034</v>
       </c>
       <c r="B30" s="0">
-        <v>261.1343</v>
+        <v>179.2763</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.4117</v>
+        <v>0.0024</v>
       </c>
       <c r="B31" s="0">
-        <v>263.0274</v>
+        <v>166.1184</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.4328</v>
+        <v>0.0023</v>
       </c>
       <c r="B32" s="0">
-        <v>263.6802</v>
+        <v>152.9605</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.4538</v>
+        <v>0.0023</v>
       </c>
       <c r="B33" s="0">
-        <v>266.4155</v>
+        <v>140.625</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.4749</v>
+        <v>0.0033</v>
       </c>
       <c r="B34" s="0">
-        <v>265.7564</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.4959</v>
-      </c>
-      <c r="B35" s="0">
-        <v>266.7396</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.517</v>
-      </c>
-      <c r="B36" s="0">
-        <v>266.0765</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.538</v>
-      </c>
-      <c r="B37" s="0">
-        <v>267.5493</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.5591</v>
-      </c>
-      <c r="B38" s="0">
-        <v>267.2771</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.5801</v>
-      </c>
-      <c r="B39" s="0">
-        <v>268.973</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.6012</v>
-      </c>
-      <c r="B40" s="0">
-        <v>268.572</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.6222</v>
-      </c>
-      <c r="B41" s="0">
-        <v>270.3688</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.6433</v>
-      </c>
-      <c r="B42" s="0">
-        <v>271.7869</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.6643</v>
-      </c>
-      <c r="B43" s="0">
-        <v>271.4811</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.6853</v>
-      </c>
-      <c r="B44" s="0">
-        <v>273.7298</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.7064</v>
-      </c>
-      <c r="B45" s="0">
-        <v>272.8821</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.7274</v>
-      </c>
-      <c r="B46" s="0">
-        <v>275.9072</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.7485</v>
-      </c>
-      <c r="B47" s="0">
-        <v>277.3905</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.7695</v>
-      </c>
-      <c r="B48" s="0">
-        <v>279.0409</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.7906</v>
-      </c>
-      <c r="B49" s="0">
-        <v>281.3686</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.8116</v>
-      </c>
-      <c r="B50" s="0">
-        <v>280.7039</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.8327</v>
-      </c>
-      <c r="B51" s="0">
-        <v>283.0898</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.8537</v>
-      </c>
-      <c r="B52" s="0">
-        <v>283.3075</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.8748</v>
-      </c>
-      <c r="B53" s="0">
-        <v>285.257</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.8958</v>
-      </c>
-      <c r="B54" s="0">
-        <v>288.556</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.9169</v>
-      </c>
-      <c r="B55" s="0">
-        <v>292.6838</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.9379</v>
-      </c>
-      <c r="B56" s="0">
-        <v>297.5814</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.9604</v>
-      </c>
-      <c r="B57" s="0">
-        <v>307.4237</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.9758</v>
-      </c>
-      <c r="B58" s="0">
-        <v>325.0799</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.9868</v>
-      </c>
-      <c r="B59" s="0">
-        <v>344.7218</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.9901</v>
-      </c>
-      <c r="B60" s="0">
-        <v>368.0787</v>
-      </c>
-    </row>
-    <row r="61"/>
+        <v>125.8224</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 106 Investigation of CO2 Adsorption/Data106_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 106 Investigation of CO2 Adsorption/Data106_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 C_NaOH_750  0-1-0-500 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 C_NaOH_800  0-1-0-500 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 C_NaOH_850  0-1-0-500 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 C_NaOH_750  0&amp;1&amp;0&amp;500 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 C_NaOH_800  0&amp;1&amp;0&amp;500 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 C_NaOH_850  0&amp;1&amp;0&amp;500 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 C_NaOH_750  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 C_NaOH_750  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 C_NaOH_750  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 C_NaOH_750  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -478,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 C_NaOH_800  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 C_NaOH_800  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 C_NaOH_800  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 C_NaOH_800  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -792,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 C_NaOH_850  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 C_NaOH_850  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 C_NaOH_850  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 C_NaOH_850  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
